--- a/biology/Médecine/Capillariose/Capillariose.xlsx
+++ b/biology/Médecine/Capillariose/Capillariose.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Les capillarioses sont des maladies (humaines ou vétérinaires) provoquées par des nématodes de la famille des Capillariidae.
-La taxonomie des espèces appartenant au genre Capillaria ayant été modifiée, la plupart des espèces qui provoquent des capillarioses n'appartiennent plus à ce genre dans les classifications modernes. En 2001, un découpage de la famille dans les vingt-deux genres suivants est proposé : Amphibiocapillaria, Aonchotheca, Baruscapillaria, Calodium, Capillaria, Capillostrongyloides, Crocodylocapillaria, Echinocoleus, Eucoleus, Freitascapillaria, Gessyella, Liniscus, Paracapillaria, Paracapillaroides, Pearsonema, Paratrichosoma, Pseudocapillaria, Piscicapillaria, Pseudocapillaroides, Pterothominx, Schulmanela et Tenoranema[1].
+La taxonomie des espèces appartenant au genre Capillaria ayant été modifiée, la plupart des espèces qui provoquent des capillarioses n'appartiennent plus à ce genre dans les classifications modernes. En 2001, un découpage de la famille dans les vingt-deux genres suivants est proposé : Amphibiocapillaria, Aonchotheca, Baruscapillaria, Calodium, Capillaria, Capillostrongyloides, Crocodylocapillaria, Echinocoleus, Eucoleus, Freitascapillaria, Gessyella, Liniscus, Paracapillaria, Paracapillaroides, Pearsonema, Paratrichosoma, Pseudocapillaria, Piscicapillaria, Pseudocapillaroides, Pterothominx, Schulmanela et Tenoranema.
 Il est toutefois commode, pour la médecine, de conserver le terme capillariose, plutôt que de nombreux termes basés chacun sur le nom d'un genre ; toutes les espèces de Capillaria, qu'elles soient ou non attribuées maintenant à d'autres genres, appartiennent de toute façon à une seule famille, les Capillariidae.
 Exemples de capillarioses :
 Eucoleus aerophilus (syn. Capillaria aerophila) agent de la capillariose pulmonaire des mammifères (rarement homme)
